--- a/data_WNBA2025.xlsx
+++ b/data_WNBA2025.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="112">
   <si>
     <t>Team1</t>
   </si>
@@ -344,46 +344,46 @@
     <t>#990C24</t>
   </si>
   <si>
-    <t>Tue Sep 2 2025,New York Liberty,58,Golden State Valkyries,66,Box Score,</t>
-  </si>
-  <si>
-    <t>Tue Sep 2 2025,Indiana Fever,79,Phoenix Mercury,85,Box Score,</t>
-  </si>
-  <si>
-    <t>Wed Sep 3 2025,Los Angeles Sparks,75,Atlanta Dream,86,Box Score,</t>
-  </si>
-  <si>
-    <t>Wed Sep 3 2025,Connecticut Sun,64,Chicago Sky,88,Box Score,</t>
-  </si>
-  <si>
-    <t>Thu Sep 4 2025,Dallas Wings,80,Golden State Valkyries,84,Box Score,</t>
-  </si>
-  <si>
-    <t>Thu Sep 4 2025,Minnesota Lynx,87,Las Vegas Aces,97,Box Score,</t>
-  </si>
-  <si>
-    <t>Thu Sep 4 2025,Phoenix Mercury,75,Washington Mystics,69,Box Score,</t>
-  </si>
-  <si>
-    <t>Fri Sep 5 2025,Los Angeles Sparks,85,Atlanta Dream,104,Box Score,</t>
-  </si>
-  <si>
-    <t>Fri Sep 5 2025,Chicago Sky,77,Indiana Fever,97,Box Score,</t>
-  </si>
-  <si>
-    <t>Fri Sep 5 2025,New York Liberty,84,Seattle Storm,76,Box Score,</t>
-  </si>
-  <si>
-    <t>Sat Sep 6 2025,Phoenix Mercury,84,Connecticut Sun,87,Box Score,</t>
-  </si>
-  <si>
-    <t>Sat Sep 6 2025,Minnesota Lynx,78,Golden State Valkyries,72,Box Score,</t>
-  </si>
-  <si>
-    <t>Sun Sep 7 2025,Dallas Wings,77,Los Angeles Sparks,91,Box Score,</t>
-  </si>
-  <si>
-    <t>Sun Sep 7 2025,Chicago Sky,66,Las Vegas Aces,80,Box Score,</t>
+    <t>Tue Sep 9 2025,Minnesota Lynx,72,Indiana Fever,83,Box Score,</t>
+  </si>
+  <si>
+    <t>Tue Sep 9 2025,Chicago Sky,61,Las Vegas Aces,92,Box Score,</t>
+  </si>
+  <si>
+    <t>Tue Sep 9 2025,Washington Mystics,66,New York Liberty,75,Box Score,</t>
+  </si>
+  <si>
+    <t>Tue Sep 9 2025,Los Angeles Sparks,88,Phoenix Mercury,83,Box Score,</t>
+  </si>
+  <si>
+    <t>Tue Sep 9 2025,Golden State Valkyries,73,Seattle Storm,74,Box Score,</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 2025,Atlanta Dream,88,Connecticut Sun,72,Box Score,</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 2025,New York Liberty,91,Chicago Sky,86,Box Score,</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 2025,Phoenix Mercury,76,Dallas Wings,97,Box Score,</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 2025,Las Vegas Aces,103,Los Angeles Sparks,75,Box Score,</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 2025,Golden State Valkyries,53,Minnesota Lynx,72,Box Score,</t>
+  </si>
+  <si>
+    <t>Sun Sep 14 2025,Indiana Fever,68,Atlanta Dream,80,Box Score,</t>
+  </si>
+  <si>
+    <t>Sun Sep 14 2025,Seattle Storm,77,Las Vegas Aces,102,Box Score,</t>
+  </si>
+  <si>
+    <t>Sun Sep 14 2025,Golden State Valkyries,72,Minnesota Lynx,101,Box Score,</t>
+  </si>
+  <si>
+    <t>Sun Sep 14 2025,New York Liberty,76,Phoenix Mercury,69,Box Score,</t>
   </si>
   <si>
     <t>Sun Sep 7 2025,Indiana Fever,94,Washington Mystics,65,Box Score,</t>
@@ -754,7 +754,7 @@
         <v>84.0</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E305" si="1">if(F2=FALSE,"",if(B2=D2,"TIE",if(B2&gt;D2,A2,C2)))</f>
+        <f t="shared" ref="E2:E287" si="1">if(F2=FALSE,"",if(B2=D2,"TIE",if(B2&gt;D2,A2,C2)))</f>
         <v>Minnesota Lynx</v>
       </c>
       <c r="F2" s="4" t="b">
@@ -7641,184 +7641,261 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3"/>
-      <c r="B278" s="4"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="4"/>
+      <c r="A278" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="6">
+        <v>72.0</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="6">
+        <v>83.0</v>
+      </c>
       <c r="E278" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Indiana Fever</v>
       </c>
       <c r="F278" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3"/>
-      <c r="B279" s="4"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="4"/>
+      <c r="A279" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" s="6">
+        <v>61.0</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="6">
+        <v>92.0</v>
+      </c>
       <c r="E279" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Las Vegas Aces</v>
       </c>
       <c r="F279" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3"/>
-      <c r="B280" s="4"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="4"/>
+      <c r="A280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="6">
+        <v>66.0</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="6">
+        <v>75.0</v>
+      </c>
       <c r="E280" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>New York Liberty</v>
       </c>
       <c r="F280" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3"/>
-      <c r="B281" s="4"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="4"/>
+      <c r="A281" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="6">
+        <v>88.0</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="6">
+        <v>83.0</v>
+      </c>
       <c r="E281" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Los Angeles Sparks</v>
       </c>
       <c r="F281" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3"/>
-      <c r="B282" s="4"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="4"/>
+      <c r="A282" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" s="6">
+        <v>73.0</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="6">
+        <v>74.0</v>
+      </c>
       <c r="E282" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Seattle Storm</v>
       </c>
       <c r="F282" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3"/>
-      <c r="B283" s="4"/>
-      <c r="C283" s="3"/>
-      <c r="D283" s="4"/>
+      <c r="A283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" s="6">
+        <v>88.0</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" s="6">
+        <v>72.0</v>
+      </c>
       <c r="E283" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Atlanta Dream</v>
       </c>
       <c r="F283" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3"/>
-      <c r="B284" s="4"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="4"/>
+      <c r="A284" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="6">
+        <v>91.0</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" s="6">
+        <v>86.0</v>
+      </c>
       <c r="E284" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>New York Liberty</v>
       </c>
       <c r="F284" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="4"/>
+      <c r="A285" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" s="6">
+        <v>76.0</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="6">
+        <v>97.0</v>
+      </c>
       <c r="E285" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Dallas Wings</v>
       </c>
       <c r="F285" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3"/>
-      <c r="B286" s="4"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="4"/>
+      <c r="A286" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="6">
+        <v>75.0</v>
+      </c>
       <c r="E286" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Las Vegas Aces</v>
       </c>
       <c r="F286" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="4"/>
+      <c r="A287" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="6">
+        <v>53.0</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="6">
+        <v>72.0</v>
+      </c>
       <c r="E287" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Minnesota Lynx</v>
       </c>
       <c r="F287" s="4" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="3"/>
       <c r="F288" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7828,14 +7905,11 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3"/>
-      <c r="B289" s="4"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A289" s="5"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="3"/>
       <c r="F289" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7845,14 +7919,11 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A290" s="5"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="3"/>
       <c r="F290" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7862,14 +7933,11 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A291" s="5"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="3"/>
       <c r="F291" s="4" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7884,7 +7952,7 @@
       <c r="C292" s="3"/>
       <c r="D292" s="4"/>
       <c r="E292" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E292:E305" si="3">if(F292=FALSE,"",if(B292=D292,"TIE",if(B292&gt;D292,A292,C292)))</f>
         <v/>
       </c>
       <c r="F292" s="4" t="b">
@@ -7901,7 +7969,7 @@
       <c r="C293" s="3"/>
       <c r="D293" s="4"/>
       <c r="E293" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F293" s="4" t="b">
@@ -7918,7 +7986,7 @@
       <c r="C294" s="3"/>
       <c r="D294" s="4"/>
       <c r="E294" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F294" s="4" t="b">
@@ -7935,7 +8003,7 @@
       <c r="C295" s="3"/>
       <c r="D295" s="4"/>
       <c r="E295" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F295" s="4" t="b">
@@ -7952,7 +8020,7 @@
       <c r="C296" s="3"/>
       <c r="D296" s="4"/>
       <c r="E296" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F296" s="4" t="b">
@@ -7969,7 +8037,7 @@
       <c r="C297" s="3"/>
       <c r="D297" s="4"/>
       <c r="E297" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F297" s="4" t="b">
@@ -7986,7 +8054,7 @@
       <c r="C298" s="3"/>
       <c r="D298" s="4"/>
       <c r="E298" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F298" s="4" t="b">
@@ -8003,7 +8071,7 @@
       <c r="C299" s="3"/>
       <c r="D299" s="4"/>
       <c r="E299" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F299" s="4" t="b">
@@ -8020,7 +8088,7 @@
       <c r="C300" s="3"/>
       <c r="D300" s="4"/>
       <c r="E300" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F300" s="4" t="b">
@@ -8037,7 +8105,7 @@
       <c r="C301" s="3"/>
       <c r="D301" s="4"/>
       <c r="E301" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F301" s="4" t="b">
@@ -8054,7 +8122,7 @@
       <c r="C302" s="3"/>
       <c r="D302" s="4"/>
       <c r="E302" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F302" s="4" t="b">
@@ -8071,7 +8139,7 @@
       <c r="C303" s="3"/>
       <c r="D303" s="4"/>
       <c r="E303" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F303" s="4" t="b">
@@ -8088,7 +8156,7 @@
       <c r="C304" s="3"/>
       <c r="D304" s="4"/>
       <c r="E304" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F304" s="4" t="b">
@@ -8105,7 +8173,7 @@
       <c r="C305" s="3"/>
       <c r="D305" s="4"/>
       <c r="E305" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F305" s="4" t="b">
@@ -8846,24 +8914,24 @@
         <v>96</v>
       </c>
       <c r="B2" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A2,"","")"),45902.0)</f>
-        <v>45902</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A2,"","")"),45909.0)</f>
+        <v>45909</v>
       </c>
       <c r="C2" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"New York Liberty")</f>
-        <v>New York Liberty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Minnesota Lynx")</f>
+        <v>Minnesota Lynx</v>
       </c>
       <c r="D2" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="E2" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Golden State Valkyries")</f>
-        <v>Golden State Valkyries</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana Fever")</f>
+        <v>Indiana Fever</v>
       </c>
       <c r="F2" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="G2" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -8875,24 +8943,24 @@
         <v>97</v>
       </c>
       <c r="B3" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A3,"","")"),45902.0)</f>
-        <v>45902</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A3,"","")"),45909.0)</f>
+        <v>45909</v>
       </c>
       <c r="C3" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana Fever")</f>
-        <v>Indiana Fever</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chicago Sky")</f>
+        <v>Chicago Sky</v>
       </c>
       <c r="D3" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
-        <v>79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
       </c>
       <c r="E3" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
-        <v>Phoenix Mercury</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Las Vegas Aces")</f>
+        <v>Las Vegas Aces</v>
       </c>
       <c r="F3" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="G3" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -8904,24 +8972,24 @@
         <v>98</v>
       </c>
       <c r="B4" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A4,"","")"),45903.0)</f>
-        <v>45903</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A4,"","")"),45909.0)</f>
+        <v>45909</v>
       </c>
       <c r="C4" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Los Angeles Sparks")</f>
-        <v>Los Angeles Sparks</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Washington Mystics")</f>
+        <v>Washington Mystics</v>
       </c>
       <c r="D4" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
+      </c>
+      <c r="E4" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"New York Liberty")</f>
+        <v>New York Liberty</v>
+      </c>
+      <c r="F4" s="12">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
         <v>75</v>
-      </c>
-      <c r="E4" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Atlanta Dream")</f>
-        <v>Atlanta Dream</v>
-      </c>
-      <c r="F4" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
-        <v>86</v>
       </c>
       <c r="G4" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -8933,24 +9001,24 @@
         <v>99</v>
       </c>
       <c r="B5" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A5,"","")"),45903.0)</f>
-        <v>45903</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A5,"","")"),45909.0)</f>
+        <v>45909</v>
       </c>
       <c r="C5" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connecticut Sun")</f>
-        <v>Connecticut Sun</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Los Angeles Sparks")</f>
+        <v>Los Angeles Sparks</v>
       </c>
       <c r="D5" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
-        <v>64</v>
-      </c>
-      <c r="E5" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chicago Sky")</f>
-        <v>Chicago Sky</v>
-      </c>
-      <c r="F5" s="12">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
         <v>88</v>
+      </c>
+      <c r="E5" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
+        <v>Phoenix Mercury</v>
+      </c>
+      <c r="F5" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="G5" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -8962,24 +9030,24 @@
         <v>100</v>
       </c>
       <c r="B6" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A6,"","")"),45904.0)</f>
-        <v>45904</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A6,"","")"),45909.0)</f>
+        <v>45909</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dallas Wings")</f>
-        <v>Dallas Wings</v>
-      </c>
-      <c r="D6" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
-      </c>
-      <c r="E6" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Golden State Valkyries")</f>
         <v>Golden State Valkyries</v>
       </c>
+      <c r="D6" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
+      </c>
+      <c r="E6" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Seattle Storm")</f>
+        <v>Seattle Storm</v>
+      </c>
       <c r="F6" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="G6" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -8991,24 +9059,24 @@
         <v>101</v>
       </c>
       <c r="B7" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A7,"","")"),45904.0)</f>
-        <v>45904</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A7,"","")"),45910.0)</f>
+        <v>45910</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Minnesota Lynx")</f>
-        <v>Minnesota Lynx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Atlanta Dream")</f>
+        <v>Atlanta Dream</v>
       </c>
       <c r="D7" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
-        <v>87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Las Vegas Aces")</f>
-        <v>Las Vegas Aces</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connecticut Sun")</f>
+        <v>Connecticut Sun</v>
       </c>
       <c r="F7" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="G7" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9020,24 +9088,24 @@
         <v>102</v>
       </c>
       <c r="B8" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A8,"","")"),45904.0)</f>
-        <v>45904</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A8,"","")"),45911.0)</f>
+        <v>45911</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
-        <v>Phoenix Mercury</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"New York Liberty")</f>
+        <v>New York Liberty</v>
       </c>
       <c r="D8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
-        <v>75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Washington Mystics")</f>
-        <v>Washington Mystics</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chicago Sky")</f>
+        <v>Chicago Sky</v>
       </c>
       <c r="F8" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),86.0)</f>
+        <v>86</v>
       </c>
       <c r="G8" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9049,24 +9117,24 @@
         <v>103</v>
       </c>
       <c r="B9" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A9,"","")"),45905.0)</f>
-        <v>45905</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A9,"","")"),45911.0)</f>
+        <v>45911</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Los Angeles Sparks")</f>
-        <v>Los Angeles Sparks</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
+        <v>Phoenix Mercury</v>
       </c>
       <c r="D9" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Atlanta Dream")</f>
-        <v>Atlanta Dream</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dallas Wings")</f>
+        <v>Dallas Wings</v>
       </c>
       <c r="F9" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="G9" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9078,24 +9146,24 @@
         <v>104</v>
       </c>
       <c r="B10" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A10,"","")"),45905.0)</f>
-        <v>45905</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A10,"","")"),45911.0)</f>
+        <v>45911</v>
       </c>
       <c r="C10" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chicago Sky")</f>
-        <v>Chicago Sky</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Las Vegas Aces")</f>
+        <v>Las Vegas Aces</v>
       </c>
       <c r="D10" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana Fever")</f>
-        <v>Indiana Fever</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Los Angeles Sparks")</f>
+        <v>Los Angeles Sparks</v>
       </c>
       <c r="F10" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
       </c>
       <c r="G10" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9107,24 +9175,24 @@
         <v>105</v>
       </c>
       <c r="B11" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A11,"","")"),45905.0)</f>
-        <v>45905</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A11,"","")"),45911.0)</f>
+        <v>45911</v>
       </c>
       <c r="C11" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"New York Liberty")</f>
-        <v>New York Liberty</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Golden State Valkyries")</f>
+        <v>Golden State Valkyries</v>
       </c>
       <c r="D11" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Seattle Storm")</f>
-        <v>Seattle Storm</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Minnesota Lynx")</f>
+        <v>Minnesota Lynx</v>
       </c>
       <c r="F11" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="G11" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9136,24 +9204,24 @@
         <v>106</v>
       </c>
       <c r="B12" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A12,"","")"),45906.0)</f>
-        <v>45906</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A12,"","")"),45914.0)</f>
+        <v>45914</v>
       </c>
       <c r="C12" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
-        <v>Phoenix Mercury</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana Fever")</f>
+        <v>Indiana Fever</v>
       </c>
       <c r="D12" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connecticut Sun")</f>
-        <v>Connecticut Sun</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Atlanta Dream")</f>
+        <v>Atlanta Dream</v>
       </c>
       <c r="F12" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
-        <v>87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
       </c>
       <c r="G12" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9165,24 +9233,24 @@
         <v>107</v>
       </c>
       <c r="B13" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A13,"","")"),45906.0)</f>
-        <v>45906</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A13,"","")"),45914.0)</f>
+        <v>45914</v>
       </c>
       <c r="C13" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Minnesota Lynx")</f>
-        <v>Minnesota Lynx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Seattle Storm")</f>
+        <v>Seattle Storm</v>
       </c>
       <c r="D13" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
-        <v>78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Golden State Valkyries")</f>
-        <v>Golden State Valkyries</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Las Vegas Aces")</f>
+        <v>Las Vegas Aces</v>
       </c>
       <c r="F13" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
-        <v>72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
+        <v>102</v>
       </c>
       <c r="G13" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9194,24 +9262,24 @@
         <v>108</v>
       </c>
       <c r="B14" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A14,"","")"),45907.0)</f>
-        <v>45907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A14,"","")"),45914.0)</f>
+        <v>45914</v>
       </c>
       <c r="C14" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dallas Wings")</f>
-        <v>Dallas Wings</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Golden State Valkyries")</f>
+        <v>Golden State Valkyries</v>
       </c>
       <c r="D14" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Los Angeles Sparks")</f>
-        <v>Los Angeles Sparks</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Minnesota Lynx")</f>
+        <v>Minnesota Lynx</v>
       </c>
       <c r="F14" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="G14" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
@@ -9223,24 +9291,24 @@
         <v>109</v>
       </c>
       <c r="B15" s="11">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A15,"","")"),45907.0)</f>
-        <v>45907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("split(A15,"","")"),45914.0)</f>
+        <v>45914</v>
       </c>
       <c r="C15" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Chicago Sky")</f>
-        <v>Chicago Sky</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"New York Liberty")</f>
+        <v>New York Liberty</v>
       </c>
       <c r="D15" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Las Vegas Aces")</f>
-        <v>Las Vegas Aces</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Phoenix Mercury")</f>
+        <v>Phoenix Mercury</v>
       </c>
       <c r="F15" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
       </c>
       <c r="G15" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Box Score")</f>
